--- a/Assignment2.xlsx
+++ b/Assignment2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstuser\Assignment-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Intro\Assignment2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DECBA356-3BF1-4F2C-9736-64584044C013}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18300" windowHeight="7425"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -83,11 +84,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,14 +105,27 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF222222"/>
-      <name val="Corbel"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Corbel"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF222222"/>
+      <name val="Corbel"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -137,22 +151,23 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
     <dxf>
       <font>
         <strike val="0"/>
@@ -160,7 +175,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="16"/>
         <color theme="1"/>
         <name val="Arial"/>
         <scheme val="none"/>
@@ -173,10 +188,50 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
         <color theme="1"/>
         <name val="Arial"/>
         <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
       </font>
     </dxf>
   </dxfs>
@@ -232,7 +287,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -269,8 +323,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.9887420627134507E-2"/>
-          <c:y val="9.6122026343249081E-2"/>
+          <c:x val="8.9887463977955565E-2"/>
+          <c:y val="9.3671084929574835E-2"/>
           <c:w val="0.86770129356798986"/>
           <c:h val="0.76431813180956698"/>
         </c:manualLayout>
@@ -283,7 +337,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Salary</c:v>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Salary (Entry-Level)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:gradFill rotWithShape="1">
@@ -417,6 +479,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Degree Required</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:gradFill rotWithShape="1">
               <a:gsLst>
@@ -566,7 +639,15 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Demand</c:v>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Demands</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="34925" cap="rnd">
@@ -850,6 +931,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="2039021951"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -869,7 +951,6 @@
         <c:idx val="1"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1484,18 +1565,24 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>228599</xdr:rowOff>
+      <xdr:rowOff>219074</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1510,17 +1597,124 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>495301</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D8949CA-E5F1-4FC0-9EE2-93CDF41936A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11887201" y="5305425"/>
+          <a:ext cx="4610100" cy="1990725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>The chart presented shows the average starting salary of common careers in the Computer Science field, situated between $50,000.00 and $91,000.00. It also displays the demands for each job in the area, the lowest being in the video game field, and the highest being in the information security analyst field.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-CA" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-CA" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D12" totalsRowShown="0">
-  <autoFilter ref="A1:D12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D12" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D12" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Jobs"/>
-    <tableColumn id="2" name="Average Salary (Entry-Level)" dataDxfId="1"/>
-    <tableColumn id="3" name="Degree Required"/>
-    <tableColumn id="4" name="Demands" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Jobs" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Average Salary (Entry-Level)" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Degree Required" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Demands" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1789,206 +1983,206 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.5" customWidth="1"/>
-    <col min="2" max="2" width="26.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.625" customWidth="1"/>
-    <col min="4" max="4" width="9.5" customWidth="1"/>
+    <col min="1" max="1" width="34.875" customWidth="1"/>
+    <col min="2" max="2" width="35.875" customWidth="1"/>
+    <col min="3" max="3" width="24.75" customWidth="1"/>
+    <col min="4" max="4" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3">
         <v>65000</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>0.21</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3">
         <v>61000</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="5">
         <v>0.09</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="3">
         <v>67460</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>0.09</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="3">
         <v>67000</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>0.11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="3">
         <v>51000</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>0.13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="3">
         <v>64600</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>0.32</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="3">
         <v>91000</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>0.08</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="3">
         <v>52000</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="5">
         <v>-7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="3">
         <v>77000</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>0.21</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="3">
         <v>86000</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>0.16</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="3">
         <v>50276</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>-0.4</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
+      <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
+      <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
+      <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
+      <c r="B16" s="1"/>
     </row>
     <row r="17" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
+      <c r="B17" s="1"/>
     </row>
     <row r="18" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
+      <c r="B18" s="1"/>
     </row>
     <row r="19" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
